--- a/biology/Zoologie/1-888-Oiseaux/1-888-Oiseaux.xlsx
+++ b/biology/Zoologie/1-888-Oiseaux/1-888-Oiseaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">1-888-OISEAUX était un magazine télévisuel québécois portant sur l'ornithologie.
-Le magazine a été diffusé à la télévision de Radio-Canada et à RDI de juin 2001 à juillet 2008[1], à raison de 10 épisodes par saison. Le concepteur de l'émission est le cadreur André Boulianne, qui en est également le réalisateur et le producteur par le biais de sa maison de production[2], Les Productions du Grand Fleuve. Aucun nouvel épisode n'est en production en ce moment.
+Le magazine a été diffusé à la télévision de Radio-Canada et à RDI de juin 2001 à juillet 2008, à raison de 10 épisodes par saison. Le concepteur de l'émission est le cadreur André Boulianne, qui en est également le réalisateur et le producteur par le biais de sa maison de production, Les Productions du Grand Fleuve. Aucun nouvel épisode n'est en production en ce moment.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'idée de la série vient d'André Boulianne, cadreur et réalisateur de télévision de Rimouski. En 1995, passionné d'ornithologie, André propose l'idée de l'émission à plusieurs diffuseurs, mais ces derniers sont réticents. Alors, sans se décourager, il réserve le numéro de téléphone 1-888-OISEAUX (1-888-647-3289) qui donnera son titre à l'émission.
 Enfin, en 2000, la société Radio-Canada se montre intéressée par le projet. En juin 2001, le premier épisode est produit. Marie-Josée Lavoie anime la première saison (2001-2002), tandis que Geneviève Bouffard animera les sept autres (2002-2008). Après huit saisons, la série est retirée de l'antenne. Peu après, André Boulianne changera de domaine d'activité, délaissant ainsi la télévision pour le documentaire.
@@ -544,7 +558,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le magazine 1-888-OISEAUX se distingue des autres magazines animaliers, parce qu'il est tourné en extérieur. Avec l'aide d'experts, le téléspectateur apprend l'art d'observer les oiseaux et reconnaître les oiseaux du Québec. Chaque épisode prend fin avec la sérénade de Toselli.
 </t>
@@ -575,7 +591,9 @@
           <t>Animation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Marie-Josée Lavoie (2001-2002)
 Geneviève Bouffard (2002-2008)</t>
@@ -606,7 +624,9 @@
           <t>Équipe de production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Production : Les Productions du Grand Fleuve
 Producteur : André Boulianne
